--- a/Sample_Sheets/tidal_sites_analysis.xlsx
+++ b/Sample_Sheets/tidal_sites_analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucdavis365-my.sharepoint.com/personal/aahernes_ucdavis_edu/Documents/WORK/DahlkeLab_LAWR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucdavis365-my.sharepoint.com/personal/aahernes_ucdavis_edu/Documents/WORK/DahlkeLab_LAWR/Sample_Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_4A8D70DFC04478BE6D7D38955A5DCE3A8747FC60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{291FC921-049C-486B-A067-93DE370BDE41}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_4A8D70DFC04478BE6D7D38955A5DCE3A8747FC60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C6FD765-F9EE-480D-9A89-552C943B2642}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="105">
   <si>
     <t>site_no</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>12113390</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -411,6 +414,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -700,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D5" activeCellId="1" sqref="D26:D27 D5:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,8 +833,8 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>104</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
